--- a/static/file/Template_Welding.xlsx
+++ b/static/file/Template_Welding.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Welding Predict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Predict-Welding-main\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EA33F-3985-4E03-BD6E-9BA862945E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E1C525-9554-4544-B8DA-B5AEF239459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B96398F5-D2FB-4B4C-90EC-26DC7A009E6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>COMPONENT1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Schedule</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -96,10 +99,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,32 +417,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C73685-EA42-436F-9274-4A7FB4750E4A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="20.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
